--- a/data/trans_bre/CAGE_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Clase-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3903122212701553</v>
+        <v>-0.3923369062884404</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.793126169658521</v>
+        <v>-3.875726714334753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.821330884243327</v>
+        <v>-1.743816245710152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.011905783865479</v>
+        <v>-4.108163169626516</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.201749874450565</v>
+        <v>1.29004417612043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8825362158150962</v>
+        <v>-0.8568095936690371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.651434381016061</v>
+        <v>1.657676723325137</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3911842896788724</v>
+        <v>0.4451019186359721</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>0.5310532232636179</v>
+        <v>0.712724773510193</v>
       </c>
     </row>
     <row r="7">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.431214354055622</v>
+        <v>-1.386681920981587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.324718757736462</v>
+        <v>-3.315813100610783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.185621849636402</v>
+        <v>-1.236772322520562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8713292008330302</v>
+        <v>-0.9292997494324532</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.7602450648882971</v>
+        <v>-0.781507238699078</v>
       </c>
     </row>
     <row r="9">
@@ -774,23 +774,21 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5580798875446263</v>
+        <v>0.5586096406157174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.266968573206383</v>
+        <v>0.198584573150177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.423313001931352</v>
+        <v>1.302913918977951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.121725099422716</v>
+        <v>4.150094589433208</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
-      <c r="J9" s="6" t="n">
-        <v>10.995778104341</v>
-      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -836,16 +834,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.911218953796071</v>
+        <v>-1.882008563665887</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.808649282316045</v>
+        <v>-3.491795813903414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.050025438848934</v>
+        <v>-2.116849509873358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.106636889323302</v>
+        <v>-7.173078414995537</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -862,21 +860,21 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3217338650968407</v>
+        <v>-0.3170992192162041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.9775923472897288</v>
+        <v>-0.9337903097714104</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.492813635706433</v>
+        <v>2.534938814604877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.405830661464282</v>
+        <v>-1.431262662663678</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>3.937408005803115</v>
+        <v>3.804556120085882</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -901,7 +899,7 @@
         <v>-1.138578435325026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.5032021565326145</v>
+        <v>-0.5032021565326151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.683845990885823</v>
@@ -913,7 +911,7 @@
         <v>-0.7666042817477625</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.215504682554586</v>
+        <v>-0.2155046825545863</v>
       </c>
     </row>
     <row r="14">
@@ -924,16 +922,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.441888636238144</v>
+        <v>-1.493154539115854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.758809161552676</v>
+        <v>-2.875314409921804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.101639386937779</v>
+        <v>-2.113267100080068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.420031971877212</v>
+        <v>-2.363925443194125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
@@ -942,10 +940,10 @@
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.9457827329427569</v>
+        <v>-0.951667719320123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8749954662651637</v>
+        <v>-0.8434444804371377</v>
       </c>
     </row>
     <row r="15">
@@ -956,28 +954,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1066429865329155</v>
+        <v>0.08201659750487118</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.041491381968373</v>
+        <v>-1.130389045057486</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.4285615543035763</v>
+        <v>-0.4088882367234282</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.61849480814653</v>
+        <v>3.431809153098664</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8620947974438901</v>
+        <v>0.5442184813251072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5745435759189301</v>
+        <v>-0.6194889023759035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1923155358258302</v>
+        <v>-0.1136091714524966</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.097445707457526</v>
+        <v>2.428896516958884</v>
       </c>
     </row>
     <row r="16">
@@ -1024,24 +1022,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.957003844165584</v>
+        <v>-2.165878192953994</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.087602045294746</v>
+        <v>-2.949788771454998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.556967111835541</v>
+        <v>-2.50904124762861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.324290955786112</v>
+        <v>-4.511798782776888</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="I17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8512587333861907</v>
+        <v>-0.8519777874209136</v>
       </c>
     </row>
     <row r="18">
@@ -1052,24 +1052,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7901180977387422</v>
+        <v>0.7824378251298072</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.616260954160166</v>
+        <v>-0.582454080638768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.4368865245360244</v>
+        <v>-0.4689990061237486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.28796081247542</v>
+        <v>1.176936657404947</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>-0.3581951603873428</v>
-      </c>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>-0.2809284200897061</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.4644504298204969</v>
+      </c>
       <c r="J18" s="6" t="n">
-        <v>0.8117718260692663</v>
+        <v>0.8698595639275345</v>
       </c>
     </row>
     <row r="19">
@@ -1118,23 +1120,21 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.750797063751363</v>
+        <v>-2.119802374238285</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.225315506291324</v>
+        <v>-5.249428841903122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.883577513492079</v>
+        <v>-3.740109025181448</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.9646852959279452</v>
+        <v>-0.96812099256367</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1621797542786782</v>
+        <v>0.162502983963484</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.9711898075134885</v>
+        <v>-1.101175445544966</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.3758502181465493</v>
+        <v>-0.3360367678800572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.988392156035793</v>
+        <v>8.753337851892518</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.08800347207838699</v>
+        <v>-0.1662781644277033</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1185,7 +1185,7 @@
         <v>-0.9625628882306145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.7420597857340613</v>
+        <v>-0.7420597857340616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.6492840201517225</v>
@@ -1208,28 +1208,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8975491718802795</v>
+        <v>-0.8665093486627199</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.396482841220476</v>
+        <v>-2.381554023994136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.490626390621665</v>
+        <v>-1.462609388670609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.82699532210908</v>
+        <v>-1.857887070025803</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8625302755483074</v>
+        <v>-0.8591834290276564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9727044991063151</v>
+        <v>-0.9738605168088191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8261253838018648</v>
+        <v>-0.82691830192751</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.612871833688722</v>
+        <v>-0.6498456099687889</v>
       </c>
     </row>
     <row r="24">
@@ -1240,28 +1240,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1732175801623091</v>
+        <v>-0.1228756631826255</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.323414857824908</v>
+        <v>-1.31134384463388</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.5342321842235538</v>
+        <v>-0.4624493273338074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6061604508221573</v>
+        <v>0.4444026605591368</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.2660932162549587</v>
+        <v>-0.1871053224485441</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.8214447597430723</v>
+        <v>-0.8158053523784146</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.4382901605350749</v>
+        <v>-0.3956576988978284</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.320672497175109</v>
+        <v>0.2693413853448064</v>
       </c>
     </row>
     <row r="25">
